--- a/국립공원채용정보_20240422_REF_Retry_ver03/Data/Config.xlsx
+++ b/국립공원채용정보_20240422_REF_Retry_ver03/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Desktop\Desktop_20240419_18시38분\국립공원채용정보_20240419_21_REF_ver02\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Desktop\Desktop_20240422_15시36분\국립공원채용정보_20240422_REF_Retry_ver03\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -192,10 +192,6 @@
   </si>
   <si>
     <t>AllKill대상</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>구분자 | excel|iexplore|chrome|msedge</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -350,6 +346,22 @@
   &lt;p&gt;감사합니다.&lt;/p&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분자 | </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>excel|iexplore|chrome|msedge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분자 | </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>excel|iexplore|chrome|msedge</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -809,9 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -882,18 +892,22 @@
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -907,10 +921,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -946,30 +960,30 @@
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="15.6">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6">
@@ -984,91 +998,91 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="15.6">
       <c r="A20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="168.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="168.75" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="168.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="31.2">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="10">
         <f ca="1">TODAY()</f>
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6">
       <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15.6">
       <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C27" s="5"/>
     </row>

--- a/국립공원채용정보_20240422_REF_Retry_ver03/Data/Config.xlsx
+++ b/국립공원채용정보_20240422_REF_Retry_ver03/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Desktop\Desktop_20240422_15시36분\국립공원채용정보_20240422_REF_Retry_ver03\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4sooh\Desktop\Desktop_20240503_20시48분\국립공원채용정보_20240422_REF_Retry_ver03\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="19428" windowHeight="10308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[국립공원] {0} 채용공고 검색 결과_{1}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>0: 오늘날짜 yyyy/MM/dd, 1: 본인이름</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -276,20 +272,6 @@
   </si>
   <si>
     <t>&lt;채용진행중&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;
-&lt;html lang="ko"&gt;
-&lt;head&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;p&gt;안녕하세요.&lt;/p&gt;
-&lt;p&gt;수신된 작업지시서 메일이 없어, 회신 사항이 없음을 안내드립니다.&lt;/p&gt;
-&lt;p&gt;확인 부탁드립니다.&lt;/p&gt;
-&lt;p&gt;감사합니다.&lt;/p&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -328,6 +310,54 @@
   </si>
   <si>
     <t>결과메일_내용2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분자 | </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>excel|iexplore|chrome|msedge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분자 | </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>excel|iexplore|chrome|msedge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0: 오늘날짜
+1: dt채용중 html1
+&lt;채용진행중&gt;시트</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[국립공원] {0} 채용공고 검색 결과_{1}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[국립공원] {0} 수신된 작업지시서 메일이 없습니다_{1}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>결과메일_작업지시서없음_제목</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html lang="ko"&gt;
+&lt;head&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;p&gt;안녕하세요.&lt;/p&gt;
+&lt;p&gt;수신된 작업지시서 메일이 없어, 회신 사항이 없음을 안내드립니다.&lt;/p&gt;
+&lt;p&gt;확인 부탁드립니다.&lt;/p&gt;
+&lt;p&gt;감사합니다.&lt;/p&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -346,22 +376,6 @@
   &lt;p&gt;감사합니다.&lt;/p&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구분자 | </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>excel|iexplore|chrome|msedge</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구분자 | </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>excel|iexplore|chrome|msedge</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -468,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -501,6 +515,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -819,14 +834,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="76.109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
     <col min="3" max="3" width="51.6640625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -880,10 +897,10 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
@@ -893,10 +910,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.6">
@@ -904,24 +921,24 @@
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>55</v>
@@ -949,10 +966,10 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="15.6">
@@ -972,7 +989,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.6">
@@ -986,24 +1003,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -1014,125 +1031,136 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="54" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="54" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="54" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.2">
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="10">
+        <f ca="1">TODAY()</f>
+        <v>45418</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="168.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="168.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="168.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="31.2">
-      <c r="A25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="10">
-        <f ca="1">TODAY()</f>
-        <v>45404</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:5" ht="15.6">
+      <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.6">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="62.4">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:5" ht="62.4">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-    </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2109,6 +2137,7 @@
     <row r="1008" ht="14.25" customHeight="1"/>
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
